--- a/public/upload/users/Upload_userlist.xlsx
+++ b/public/upload/users/Upload_userlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alastrol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF55F3-ED07-4EA4-8A56-3510D7C6A498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1BD440-1A4A-4AF3-A876-3C3773C75083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,13 +34,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>New</t>
+    <t>Suphavit Bunnag</t>
   </si>
   <si>
-    <t>sss@itp.co.th</t>
+    <t>supha@gmail.com</t>
   </si>
   <si>
-    <t>test</t>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -339,7 +339,7 @@
   <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6362,7 +6362,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{770FE154-1FF9-4EA0-9CAB-E7741DB9A185}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{06321A57-C1EB-4DB4-BEE5-81A5CAD1DC32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
